--- a/biology/Botanique/Glyceria_fluitans/Glyceria_fluitans.xlsx
+++ b/biology/Botanique/Glyceria_fluitans/Glyceria_fluitans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Glycérie flottante
 Glyceria fluitans, la glycérie flottante, est une espèce de plantes monocotylédones de la famille des Poaceae (Graminées), sous-famille des Pooideae, originaire d'Europe, d'Afrique du Nord et d'Asie occidentale. 
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Glyceria fluitans possède une tige épaisse qui s'élève jusqu'à un mètre de haut. Les feuilles sont vert pâle, longues et étroites, elles sont rugueuses des deux côtés, souvent pliées et qui se trouve sur la surface de l'eau.
 </t>
@@ -545,9 +559,11 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (31 mars 2018)[2] (attention, liste brute contenant possiblement des synonymes) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (31 mars 2018) (attention, liste brute contenant possiblement des synonymes) :
 sous-espèces :
 Glyceria fluitans subsp. declinata (Bréb.) O. Bolòs, Masalles &amp; Vigo
 Glyceria fluitans subsp. fluitans
